--- a/CollectionSoftware3/HISTORY.xlsx
+++ b/CollectionSoftware3/HISTORY.xlsx
@@ -1,42 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\PycharmProjects\CollectionSoftware2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282356B6-B5ED-4A13-A118-83C50F592D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -55,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -335,14 +385,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CollectionSoftware3/HISTORY.xlsx
+++ b/CollectionSoftware3/HISTORY.xlsx
@@ -390,14 +390,30 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ARTHI STORE(ARUM)</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CollectionSoftware3/HISTORY.xlsx
+++ b/CollectionSoftware3/HISTORY.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -390,10 +390,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:D4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -401,16 +401,2598 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>25-07-2023</t>
+          <t>2023-07-20</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>ARTHI STORE(ARUM)</t>
-        </is>
-      </c>
-      <c r="C1" t="n">
-        <v>1</v>
+          <t>ARUN STORES</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ARCHANA STORE</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7547</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AP SELVAM STORE</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AP SELVAM STORE</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5423</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>JAMAILA STORE</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TAYLORS  ROAD (VEG &amp; FRUITS)</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SARAN SWEETS</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>JAYALAKSHMI SUPER  MARKET</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5172</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ISMAIL STORE(KIL)</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ISMAIL STORE(KIL)</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>AK SUPER MARKET</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>25442</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>THIRUPATHI STORE</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>THIRUPATHI STORE</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>31775</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ISHWARYA SWEETS</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>4785</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>RENGA STORE</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>15011</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MANGALAM SUPER MARKET</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>6145</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SELVA GANESH STORE</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4515</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SEKAR STORE</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SEKAR STORE</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>51936</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>KANNIYAPPAN VEGETABLE</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>4592</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>HANEEFA SUPER MARKET</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>7794</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>HANEEFA SUPER MARKET</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>5458</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MUTHUKRISHNA STORE</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>9091</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MURUGAN SUPER MARKET (CHOOLAI)</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SARANYA STORE(CHOO)</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ARUL STORE (CHOO)</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>7237</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ARUL STORE (CHOO)</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SELVAKUMAR PROVISION STORE</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>6849</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>NEW SELVAKUMAR STORE(NEW)</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>9759</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>AVP CHANDRA STORE</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CHANDRA SUPER MARKET</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>PERIYAPERATTI STORE</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DHANALAKSHMI STORE</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DHANALAKSHMI STORE</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>5975</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ANNAI STORE(BELL)</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIVA STORE (THANGA COLONY)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SIVA STORE (THANGA COLONY)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>AYYANAR STORE (Y-20)</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>4710</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>AYYANAR STORE (Y-20)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>AYYANAR STORE (Y-20)</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>PADMA STORE</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>8804</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>SELVAM STORE(ARUM)</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CHANDRA STORE</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CHANDRA STORE</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>INDIRA STORE (11 TH)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>RAJA STORE (ARUM)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SELVAM STORE (NSK)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>RAJA STORE (ARUM)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>GNANAM STORE</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>GNANAM STORE</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>4947</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SELVAKUMAR PROVISION STORE</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>NEW SELVAKUMAR STORE(NEW)</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>6742</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MURUGAN SUPER MARKET (CHOOLAI)</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>JOSEPH STORE</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>JAYALAKSHMI SUPER  MARKET</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>9853</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>JAMAILA STORE</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>TAYLORS  ROAD (VEG &amp; FRUITS)</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>TAYLORS  ROAD (VEG &amp; FRUITS)</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>AP SELVAM STORE</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>GANESH STORE(SHENOY)</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>5638</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>SAKTHI STORE (KAT)</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>SRI BALAMURUGAN STORE</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>6755</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>RENGA STORE</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>23292</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>THIRUPATHI STORE</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>24366</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>AVS STORE</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>5549</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>AVS STORE</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ISHWARYA SWEETS</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>4805</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ARTHI FISH STORE</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>AV STORE(2)</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>5951</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>SRI SAKTHI STORE</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>13532</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>PADMANABAN STORE</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>PADMANABAN STORE</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>SRI BALAMURUGAN STORE</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>CHANDRA SUPER MARKET</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>SELVAM STORE(ARUM)</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>DHANALAKSHMI STORE</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>6267</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>SAKTHI STORE (KAT)</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>CHANDRA STORE</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>4530</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>PADMA STORE</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>6268</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>SIVA STORE (THANGA COLONY)</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>SIVA STORE (THANGA COLONY)</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ANNAI STORE(BELL)</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>6128</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>INDIRA STORE (11 TH)</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>3710</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>LAKSHMAN &amp; LAKSHMI SWEETS</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2023-07-22</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>SELVAM STORE (NSK)</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2023-07-22</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>AYYANAR STORE(NAVEL)</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2023-07-22</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>MURUGAN STORE (18TH)</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2023-07-22</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>REVATHI STORE</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>5370</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2023-07-22</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>MURUGAN STORE (AMINJI) RAMAN</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>16887</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2023-07-22</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>KANNIYAPPAN VEGETABLE</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2023-07-22</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>SEKAR STORE</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2023-07-22</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>PADMAVATHI SWEETS</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2023-07-22</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>IBRAHIM STORE</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2023-07-22</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>IBRAHIM STORE</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>5433</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2023-07-22</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>SARAN SWEETS</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2023-07-22</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>SARAN SWEETS</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2023-07-22</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>SARAN SWEETS</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2023-07-22</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>THIRUPATHI STORE</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>38381</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2023-07-22</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>RENGA STORE</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2023-07-22</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>RENGA STORE</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>20239</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2023-07-22</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>SELVA GANESH STORE</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2023-07-22</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ISHWARYA SWEETS</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>9650</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2023-07-22</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>SRI BALAMURUGAN STORE</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>3555</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2023-07-22</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>SANTHOSH STORE(ARUM)</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2023-07-22</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>ARI ALAGAR STORES</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>7878</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2023-07-22</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>SARAN SWEETS</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2023-07-23</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>CHANDRA SUPER MARKET</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2023-07-23</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>SELVAM STORE(ARUM)</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>4589</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2023-07-23</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>SIVA STORE (THANGA COLONY)</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2023-07-23</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>SAKTHI STORE (KAT)</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2023-07-23</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>INDIRA STORE (11 TH)</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2023-07-23</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>INDIRA STORE (11 TH)</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2023-07-23</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>AYYANAR STORE (Y-20)</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>12385</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2023-07-23</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>LAKSHMAN &amp; LAKSHMI SWEETS</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>4940</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2023-07-23</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>DHANALAKSHMI STORE</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2023-07-23</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>DHANALAKSHMI STORE</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>6065</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2023-07-23</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>MURUGAN STORE (18TH)</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2023-07-23</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>ARUL STORE (CHOO)</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>JAMAILA STORE</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>ISMAIL STORE(KIL)</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>SEKAR STORE</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>PANI POORI</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>KANNIYAPPAN VEGETABLE</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>PADMAVATHI SWEETS</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>GANESH STORE(SHENOY)</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>ISHWARYA SWEETS</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>4815</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>PADMANABAN STORE</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>SELVA GANESH STORE</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>THIRUPATHI STORE</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>THIRUPATHI STORE</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>27494</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>RENGA STORE</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>RENGA STORE</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>11322</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>MUTHUKRISHNA STORE</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>HANEEFA SUPER MARKET</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>ARUL STORE (CHOO)</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>ARUL STORE (CHOO)</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>ARUL STORE (CHOO)</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>SELVAKUMAR PROVISION STORE</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>SELVAKUMAR PROVISION STORE</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>8669</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>NEW SELVAKUMAR STORE(NEW)</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>11411</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>NEW SELVAKUMAR STORE(NEW)</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>4922</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>NEW SELVAKUMAR STORE(NEW)</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>MUTHUKRISHNA STORE</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>GNANAM STORE</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>4891</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>GNANAM STORE</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>HANEEFA SUPER MARKET</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>ARUL STORE (CHOO)</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>ARUL STORE (CHOO)</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>ARUL STORE (CHOO)</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>PRAKASH STORE</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>VANAJA STORE</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>4914</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>SELVAKUMAR PROVISION STORE</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>SELVAKUMAR PROVISION STORE</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>8669</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>NEW SELVAKUMAR STORE(NEW)</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>11411</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>NEW SELVAKUMAR STORE(NEW)</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>4922</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>NEW SELVAKUMAR STORE(NEW)</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>26-07-2023</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>MUTHUKRISHNA STORE</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>26-07-2023</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>GNANAM STORE</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>4891</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>26-07-2023</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>GNANAM STORE</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>26-07-2023</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>HANEEFA SUPER MARKET</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>26-07-2023</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>ARUL STORE (CHOO)</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>26-07-2023</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>ARUL STORE (CHOO)</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>26-07-2023</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>ARUL STORE (CHOO)</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>26-07-2023</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>PRAKASH STORE</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>26-07-2023</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>VANAJA STORE</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>4914</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>26-07-2023</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>SELVAKUMAR PROVISION STORE</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>26-07-2023</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>SELVAKUMAR PROVISION STORE</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>8669</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>26-07-2023</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>NEW SELVAKUMAR STORE(NEW)</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>11411</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>26-07-2023</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>NEW SELVAKUMAR STORE(NEW)</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>4922</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>26-07-2023</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>NEW SELVAKUMAR STORE(NEW)</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>26-07-2023</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>MURUGAN STORE (18TH)</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>26-07-2023</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>MURUGAN STORE (18TH)</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>26-07-2023</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>AVS STORE</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>6415</v>
       </c>
     </row>
   </sheetData>
